--- a/GWD Data/Pump Pullout.xlsx
+++ b/GWD Data/Pump Pullout.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <bookViews>
-    <workbookView xWindow="130" yWindow="610" windowWidth="18880" windowHeight="6490"/>
-  </bookViews>
   <sheets>
-    <sheet name="Pump Pullout" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Pump Pullout" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="33">
   <si>
-    <t xml:space="preserve">Pump Erection </t>
+    <t>Pump Pullout</t>
   </si>
   <si>
     <t>0</t>
@@ -109,7 +106,7 @@
     <t>Say Rs 5970 x Cost Index</t>
   </si>
   <si>
-    <t>Compressor pump fitting charge</t>
+    <t>Compressor pump pullout charge</t>
   </si>
   <si>
     <t>Say Rs 3616 x Cost Index</t>
@@ -118,33 +115,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <b/>
-      <sz val="12"/>
+      <sz val="12.0"/>
+      <color theme="1"/>
       <name val="Merriweather"/>
     </font>
+    <font/>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
+      <color theme="1"/>
       <name val="Merriweather"/>
     </font>
   </fonts>
@@ -153,7 +144,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -175,39 +166,27 @@
     </fill>
   </fills>
   <borders count="8">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -217,7 +196,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -232,34 +210,27 @@
       <bottom style="thin">
         <color rgb="FF3D3D3D"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF3D3D3D"/>
       </left>
-      <right/>
       <top style="thin">
         <color rgb="FF3D3D3D"/>
       </top>
       <bottom style="thin">
         <color rgb="FF3D3D3D"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color rgb="FF3D3D3D"/>
       </top>
       <bottom style="thin">
         <color rgb="FF3D3D3D"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="thin">
         <color rgb="FF3D3D3D"/>
       </right>
@@ -269,110 +240,123 @@
       <bottom style="thin">
         <color rgb="FF3D3D3D"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="31">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+  <cellXfs count="35">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="3" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="4" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -562,159 +546,156 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
-    <tabColor rgb="FF00FF00"/>
+    <tabColor rgb="FFFF00FF"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="7" style="6" customWidth="1"/>
-    <col min="2" max="2" width="29.36328125" style="6" customWidth="1"/>
-    <col min="3" max="5" width="7" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="12.6328125" style="6"/>
+    <col customWidth="1" min="1" max="1" width="7.0"/>
+    <col customWidth="1" min="2" max="2" width="29.38"/>
+    <col customWidth="1" min="3" max="3" width="7.0"/>
+    <col customWidth="1" min="4" max="4" width="9.75"/>
+    <col customWidth="1" min="5" max="5" width="7.0"/>
+    <col customWidth="1" min="6" max="6" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A1" s="5" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11" t="s">
+    <row r="4">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A5" s="12"/>
-      <c r="B5" s="11" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="13">
-        <v>0</v>
+      <c r="D5" s="14">
+        <v>0.0</v>
       </c>
       <c r="E5" s="13">
-        <v>935</v>
-      </c>
-      <c r="F5" s="14">
+        <v>935.0</v>
+      </c>
+      <c r="F5" s="15">
         <f>D5*E5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="12"/>
-      <c r="B6" s="15" t="s">
+    <row r="6">
+      <c r="A6" s="11"/>
+      <c r="B6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="14">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="15">
         <f>F5*0.01</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="15" t="s">
+    <row r="7">
+      <c r="A7" s="11"/>
+      <c r="B7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="14">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="15">
         <f>SUM(F5:F6)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="15" t="s">
+    <row r="8">
+      <c r="A8" s="11"/>
+      <c r="B8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="14">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="15">
         <f>F7*0.15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="15" t="s">
+    <row r="9">
+      <c r="A9" s="11"/>
+      <c r="B9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="14">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="15">
         <f>SUM(F7:F8)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A10" s="12" t="s">
+    <row r="10">
+      <c r="A10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -723,671 +704,671 @@
       <c r="D10" s="13">
         <v>0.5</v>
       </c>
-      <c r="E10" s="13">
-        <v>3000</v>
-      </c>
-      <c r="F10" s="14">
-        <f t="shared" ref="F10:F12" si="0">D10*E10</f>
+      <c r="E10" s="14">
+        <v>3000.0</v>
+      </c>
+      <c r="F10" s="15">
+        <f t="shared" ref="F10:F12" si="1">D10*E10</f>
         <v>1500</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A11" s="12" t="s">
+    <row r="11">
+      <c r="A11" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="13">
-        <v>1</v>
-      </c>
-      <c r="E11" s="13">
+      <c r="D11" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="E11" s="14">
+        <v>784.0</v>
+      </c>
+      <c r="F11" s="15">
+        <f t="shared" si="1"/>
         <v>784</v>
       </c>
-      <c r="F11" s="14">
-        <f t="shared" si="0"/>
-        <v>784</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A12" s="12" t="s">
+    </row>
+    <row r="12">
+      <c r="A12" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="13">
-        <v>1</v>
-      </c>
-      <c r="E12" s="13">
+      <c r="D12" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="E12" s="14">
+        <v>645.0</v>
+      </c>
+      <c r="F12" s="15">
+        <f t="shared" si="1"/>
         <v>645</v>
       </c>
-      <c r="F12" s="14">
-        <f t="shared" si="0"/>
-        <v>645</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="15" t="s">
+    </row>
+    <row r="13">
+      <c r="A13" s="18"/>
+      <c r="B13" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="14">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="15">
         <f>SUM(F10:F12)</f>
         <v>2929</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A14" s="16"/>
-      <c r="B14" s="15" t="s">
+    <row r="14">
+      <c r="A14" s="18"/>
+      <c r="B14" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="14">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="15">
         <f>F13*0.01</f>
         <v>29.29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A15" s="16"/>
-      <c r="B15" s="15" t="s">
+    <row r="15">
+      <c r="A15" s="18"/>
+      <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="14">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="15">
         <f>SUM(F13:F14)</f>
         <v>2958.29</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A16" s="16"/>
-      <c r="B16" s="15" t="s">
+    <row r="16">
+      <c r="A16" s="18"/>
+      <c r="B16" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="14">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="15">
         <f>F15*0.15</f>
-        <v>443.74349999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A17" s="16"/>
-      <c r="B17" s="15" t="s">
+        <v>443.7435</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="18"/>
+      <c r="B17" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="14">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="15">
         <f>SUM(F15:F16)</f>
         <v>3402.0335</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A18" s="17" t="str">
+    <row r="18">
+      <c r="A18" s="19" t="str">
         <f>CONCATENATE("Say Rs ",F9," + (",F17," x Cost Index)")</f>
         <v>Say Rs 0 + (3402.0335 x Cost Index)</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A19" s="18" t="s">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A20" s="18" t="s">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A21" s="21"/>
-      <c r="B21" s="22" t="s">
+    <row r="21">
+      <c r="A21" s="23"/>
+      <c r="B21" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A22" s="23"/>
-      <c r="B22" s="22" t="s">
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="25"/>
+      <c r="B22" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="24">
-        <v>0</v>
-      </c>
-      <c r="E22" s="24">
-        <v>935</v>
-      </c>
-      <c r="F22" s="25">
+      <c r="D22" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="E22" s="26">
+        <v>935.0</v>
+      </c>
+      <c r="F22" s="28">
         <f>D22*E22</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A23" s="23"/>
-      <c r="B23" s="26" t="s">
+    <row r="23">
+      <c r="A23" s="25"/>
+      <c r="B23" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="25">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="28">
         <f>F22*0.01</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.5">
-      <c r="A24" s="23"/>
-      <c r="B24" s="26" t="s">
+    <row r="24">
+      <c r="A24" s="25"/>
+      <c r="B24" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="25">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="28">
         <f>SUM(F22:F23)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.5">
-      <c r="A25" s="23"/>
-      <c r="B25" s="26" t="s">
+    <row r="25">
+      <c r="A25" s="25"/>
+      <c r="B25" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="25">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="28">
         <f>F24*0.15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.5">
-      <c r="A26" s="23"/>
-      <c r="B26" s="26" t="s">
+    <row r="26">
+      <c r="A26" s="25"/>
+      <c r="B26" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="25">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="28">
         <f>SUM(F24:F25)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="31">
-      <c r="A27" s="23" t="s">
+    <row r="27">
+      <c r="A27" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="24">
+      <c r="D27" s="26">
         <v>0.75</v>
       </c>
-      <c r="E27" s="24">
-        <v>3000</v>
-      </c>
-      <c r="F27" s="25">
-        <f t="shared" ref="F27:F29" si="1">D27*E27</f>
+      <c r="E27" s="27">
+        <v>3000.0</v>
+      </c>
+      <c r="F27" s="28">
+        <f t="shared" ref="F27:F29" si="2">D27*E27</f>
         <v>2250</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.5">
-      <c r="A28" s="23" t="s">
+    <row r="28">
+      <c r="A28" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="24">
-        <v>1</v>
-      </c>
-      <c r="E28" s="24">
+      <c r="D28" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="E28" s="27">
+        <v>784.0</v>
+      </c>
+      <c r="F28" s="28">
+        <f t="shared" si="2"/>
         <v>784</v>
       </c>
-      <c r="F28" s="25">
-        <f t="shared" si="1"/>
-        <v>784</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.5">
-      <c r="A29" s="23" t="s">
+    </row>
+    <row r="29">
+      <c r="A29" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="24">
-        <v>1</v>
-      </c>
-      <c r="E29" s="24">
+      <c r="D29" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="E29" s="27">
+        <v>645.0</v>
+      </c>
+      <c r="F29" s="28">
+        <f t="shared" si="2"/>
         <v>645</v>
       </c>
-      <c r="F29" s="25">
-        <f t="shared" si="1"/>
-        <v>645</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.5">
-      <c r="A30" s="27"/>
-      <c r="B30" s="26" t="s">
+    </row>
+    <row r="30">
+      <c r="A30" s="31"/>
+      <c r="B30" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="25">
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="28">
         <f>SUM(F27:F29)</f>
         <v>3679</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.5">
-      <c r="A31" s="27"/>
-      <c r="B31" s="26" t="s">
+    <row r="31">
+      <c r="A31" s="31"/>
+      <c r="B31" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="25">
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="28">
         <f>F30*0.01</f>
         <v>36.79</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.5">
-      <c r="A32" s="27"/>
-      <c r="B32" s="26" t="s">
+    <row r="32">
+      <c r="A32" s="31"/>
+      <c r="B32" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="25">
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="28">
         <f>SUM(F30:F31)</f>
         <v>3715.79</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.5">
-      <c r="A33" s="27"/>
-      <c r="B33" s="26" t="s">
+    <row r="33">
+      <c r="A33" s="31"/>
+      <c r="B33" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="25">
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="28">
         <f>F32*0.15</f>
-        <v>557.36849999999993</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.5">
-      <c r="A34" s="27"/>
-      <c r="B34" s="26" t="s">
+        <v>557.3685</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="31"/>
+      <c r="B34" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="25">
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="28">
         <f>SUM(F32:F33)</f>
-        <v>4273.1584999999995</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="12.5">
-      <c r="A35" s="17" t="str">
+        <v>4273.1585</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="19" t="str">
         <f>CONCATENATE("Say Rs ",F26," + (",F34," x Cost Index)")</f>
         <v>Say Rs 0 + (4273.1585 x Cost Index)</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="1:6" ht="15.5">
-      <c r="A36" s="7" t="s">
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="1:6" ht="31">
-      <c r="A37" s="7" t="s">
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.5">
-      <c r="A38" s="10"/>
-      <c r="B38" s="11" t="s">
+    <row r="38">
+      <c r="A38" s="9"/>
+      <c r="B38" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-    </row>
-    <row r="39" spans="1:6" ht="15.5">
-      <c r="A39" s="12"/>
-      <c r="B39" s="11" t="s">
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="11"/>
+      <c r="B39" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="13">
-        <v>0</v>
+      <c r="D39" s="14">
+        <v>0.0</v>
       </c>
       <c r="E39" s="13">
-        <v>935</v>
-      </c>
-      <c r="F39" s="14">
+        <v>935.0</v>
+      </c>
+      <c r="F39" s="15">
         <f>D39*E39</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.5">
-      <c r="A40" s="12"/>
-      <c r="B40" s="15" t="s">
+    <row r="40">
+      <c r="A40" s="11"/>
+      <c r="B40" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="14">
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="15">
         <f>F39*0.01</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.5">
-      <c r="A41" s="12"/>
-      <c r="B41" s="15" t="s">
+    <row r="41">
+      <c r="A41" s="11"/>
+      <c r="B41" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="14">
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="15">
         <f>SUM(F39:F40)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.5">
-      <c r="A42" s="12"/>
-      <c r="B42" s="15" t="s">
+    <row r="42">
+      <c r="A42" s="11"/>
+      <c r="B42" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="14">
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="15">
         <f>F41*0.15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.5">
-      <c r="A43" s="12"/>
-      <c r="B43" s="15" t="s">
+    <row r="43">
+      <c r="A43" s="11"/>
+      <c r="B43" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="14">
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="15">
         <f>SUM(F41:F42)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="31">
-      <c r="A44" s="12" t="s">
+    <row r="44">
+      <c r="A44" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D44" s="13">
-        <v>1</v>
-      </c>
-      <c r="E44" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="E44" s="14">
+        <v>3000.0</v>
+      </c>
+      <c r="F44" s="15">
+        <f t="shared" ref="F44:F46" si="3">D44*E44</f>
         <v>3000</v>
       </c>
-      <c r="F44" s="14">
-        <f t="shared" ref="F44:F46" si="2">D44*E44</f>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15.5">
-      <c r="A45" s="12" t="s">
+    </row>
+    <row r="45">
+      <c r="A45" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="13">
-        <v>1</v>
-      </c>
-      <c r="E45" s="13">
+      <c r="D45" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="E45" s="14">
+        <v>784.0</v>
+      </c>
+      <c r="F45" s="15">
+        <f t="shared" si="3"/>
         <v>784</v>
       </c>
-      <c r="F45" s="14">
-        <f t="shared" si="2"/>
-        <v>784</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15.5">
-      <c r="A46" s="12" t="s">
+    </row>
+    <row r="46">
+      <c r="A46" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="13">
-        <v>1</v>
-      </c>
-      <c r="E46" s="13">
+      <c r="D46" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="E46" s="14">
+        <v>645.0</v>
+      </c>
+      <c r="F46" s="15">
+        <f t="shared" si="3"/>
         <v>645</v>
       </c>
-      <c r="F46" s="14">
-        <f t="shared" si="2"/>
-        <v>645</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15.5">
-      <c r="A47" s="16"/>
-      <c r="B47" s="15" t="s">
+    </row>
+    <row r="47">
+      <c r="A47" s="18"/>
+      <c r="B47" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="14">
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="15">
         <f>SUM(F44:F46)</f>
         <v>4429</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.5">
-      <c r="A48" s="16"/>
-      <c r="B48" s="15" t="s">
+    <row r="48">
+      <c r="A48" s="18"/>
+      <c r="B48" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="14">
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="15">
         <f>F47*0.01</f>
         <v>44.29</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.5">
-      <c r="A49" s="16"/>
-      <c r="B49" s="15" t="s">
+    <row r="49">
+      <c r="A49" s="18"/>
+      <c r="B49" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="14">
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="15">
         <f>SUM(F47:F48)</f>
         <v>4473.29</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.5">
-      <c r="A50" s="16"/>
-      <c r="B50" s="15" t="s">
+    <row r="50">
+      <c r="A50" s="18"/>
+      <c r="B50" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="14">
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="15">
         <f>F49*0.15</f>
-        <v>670.99349999999993</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15.5">
-      <c r="A51" s="16"/>
-      <c r="B51" s="15" t="s">
+        <v>670.9935</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="18"/>
+      <c r="B51" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="14">
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="15">
         <f>SUM(F49:F50)</f>
-        <v>5144.2834999999995</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="12.5">
-      <c r="A52" s="17" t="str">
+        <v>5144.2835</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="19" t="str">
         <f>CONCATENATE("Say Rs ",F43," + (",F51," x Cost Index)")</f>
         <v>Say Rs 0 + (5144.2835 x Cost Index)</v>
       </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="4"/>
-    </row>
-    <row r="53" spans="1:6" ht="15.5">
-      <c r="A53" s="7" t="s">
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="7"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="28" t="s">
+      <c r="B53" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="4"/>
-    </row>
-    <row r="54" spans="1:6" ht="31">
-      <c r="A54" s="7" t="s">
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="7"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D54" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E54" s="9" t="s">
+      <c r="E54" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="F54" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="31">
-      <c r="A55" s="12"/>
-      <c r="B55" s="11" t="s">
+    <row r="55">
+      <c r="A55" s="11"/>
+      <c r="B55" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C55" s="13" t="s">
@@ -1396,19 +1377,19 @@
       <c r="D55" s="13">
         <v>0.2</v>
       </c>
-      <c r="E55" s="13">
-        <v>3000</v>
-      </c>
-      <c r="F55" s="14">
-        <f t="shared" ref="F55:F57" si="3">D55*E55</f>
+      <c r="E55" s="14">
+        <v>3000.0</v>
+      </c>
+      <c r="F55" s="15">
+        <f t="shared" ref="F55:F57" si="4">D55*E55</f>
         <v>600</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.5">
-      <c r="A56" s="12" t="s">
+    <row r="56">
+      <c r="A56" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C56" s="13" t="s">
@@ -1417,282 +1398,322 @@
       <c r="D56" s="13">
         <v>2.5</v>
       </c>
-      <c r="E56" s="13">
-        <v>784</v>
-      </c>
-      <c r="F56" s="14">
-        <f t="shared" si="3"/>
+      <c r="E56" s="14">
+        <v>784.0</v>
+      </c>
+      <c r="F56" s="15">
+        <f t="shared" si="4"/>
         <v>1960</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.5">
-      <c r="A57" s="12" t="s">
+    <row r="57">
+      <c r="A57" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C57" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D57" s="13">
-        <v>4</v>
-      </c>
-      <c r="E57" s="13">
-        <v>645</v>
-      </c>
-      <c r="F57" s="14">
-        <f t="shared" si="3"/>
+        <v>4.0</v>
+      </c>
+      <c r="E57" s="14">
+        <v>645.0</v>
+      </c>
+      <c r="F57" s="15">
+        <f t="shared" si="4"/>
         <v>2580</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.5">
-      <c r="A58" s="16"/>
-      <c r="B58" s="15" t="s">
+    <row r="58">
+      <c r="A58" s="18"/>
+      <c r="B58" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="14">
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="15">
         <f>SUM(F55:F57)</f>
         <v>5140</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.5">
-      <c r="A59" s="16"/>
-      <c r="B59" s="15" t="s">
+    <row r="59">
+      <c r="A59" s="18"/>
+      <c r="B59" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="14">
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="15">
         <f>F58*0.01</f>
         <v>51.4</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.5">
-      <c r="A60" s="16"/>
-      <c r="B60" s="15" t="s">
+    <row r="60">
+      <c r="A60" s="18"/>
+      <c r="B60" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="14">
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="15">
         <f>SUM(F58:F59)</f>
-        <v>5191.3999999999996</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="15.5">
-      <c r="A61" s="16"/>
-      <c r="B61" s="15" t="s">
+        <v>5191.4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="18"/>
+      <c r="B61" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="14">
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="15">
         <f>F60*0.15</f>
-        <v>778.70999999999992</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="15.5">
-      <c r="A62" s="16"/>
-      <c r="B62" s="15" t="s">
+        <v>778.71</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="18"/>
+      <c r="B62" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="14">
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="15">
         <f>SUM(F60:F61)</f>
         <v>5970.11</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="12.5">
-      <c r="A63" s="17" t="s">
+    <row r="63">
+      <c r="A63" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="4"/>
-    </row>
-    <row r="64" spans="1:6" ht="15.5">
-      <c r="A64" s="18" t="s">
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="7"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B64" s="19" t="s">
+      <c r="B64" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="4"/>
-    </row>
-    <row r="65" spans="1:6" ht="31">
-      <c r="A65" s="18" t="s">
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="7"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B65" s="20" t="s">
+      <c r="B65" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="20" t="s">
+      <c r="C65" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D65" s="20" t="s">
+      <c r="D65" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E65" s="20" t="s">
+      <c r="E65" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F65" s="20" t="s">
+      <c r="F65" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="31">
-      <c r="A66" s="23" t="s">
+    <row r="66">
+      <c r="A66" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B66" s="22" t="s">
+      <c r="B66" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="24" t="s">
+      <c r="C66" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D66" s="24">
+      <c r="D66" s="26">
         <v>0.3</v>
       </c>
-      <c r="E66" s="24">
-        <v>3000</v>
-      </c>
-      <c r="F66" s="25">
-        <f t="shared" ref="F66:F68" si="4">D66*E66</f>
+      <c r="E66" s="27">
+        <v>3000.0</v>
+      </c>
+      <c r="F66" s="28">
+        <f t="shared" ref="F66:F68" si="5">D66*E66</f>
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15.5">
-      <c r="A67" s="23" t="s">
+    <row r="67">
+      <c r="A67" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B67" s="22" t="s">
+      <c r="B67" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C67" s="24" t="s">
+      <c r="C67" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D67" s="24">
+      <c r="D67" s="27">
         <v>0.5</v>
       </c>
-      <c r="E67" s="24">
-        <v>784</v>
-      </c>
-      <c r="F67" s="25">
-        <f t="shared" si="4"/>
+      <c r="E67" s="27">
+        <v>784.0</v>
+      </c>
+      <c r="F67" s="28">
+        <f t="shared" si="5"/>
         <v>392</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15.5">
-      <c r="A68" s="23" t="s">
+    <row r="68">
+      <c r="A68" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B68" s="22" t="s">
+      <c r="B68" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C68" s="24" t="s">
+      <c r="C68" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D68" s="24">
+      <c r="D68" s="27">
         <v>0.5</v>
       </c>
-      <c r="E68" s="24">
-        <v>645</v>
-      </c>
-      <c r="F68" s="25">
-        <f t="shared" si="4"/>
+      <c r="E68" s="27">
+        <v>645.0</v>
+      </c>
+      <c r="F68" s="28">
+        <f t="shared" si="5"/>
         <v>322.5</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15.5">
-      <c r="A69" s="27"/>
-      <c r="B69" s="26" t="s">
+    <row r="69">
+      <c r="A69" s="31"/>
+      <c r="B69" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="25">
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="28">
         <f>SUM(F66:F68)</f>
         <v>1614.5</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.5">
-      <c r="A70" s="27"/>
-      <c r="B70" s="26" t="s">
+    <row r="70">
+      <c r="A70" s="31"/>
+      <c r="B70" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="25">
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="28">
         <f>F69*0.01</f>
         <v>16.145</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15.5">
-      <c r="A71" s="27"/>
-      <c r="B71" s="26" t="s">
+    <row r="71">
+      <c r="A71" s="31"/>
+      <c r="B71" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="25">
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="28">
         <f>SUM(F69:F70)</f>
         <v>1630.645</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15.5">
-      <c r="A72" s="27"/>
-      <c r="B72" s="26" t="s">
+    <row r="72">
+      <c r="A72" s="31"/>
+      <c r="B72" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="25">
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="28">
         <f>F71*0.15</f>
-        <v>244.59674999999999</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="15.5">
-      <c r="A73" s="27"/>
-      <c r="B73" s="26" t="s">
+        <v>244.59675</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="31"/>
+      <c r="B73" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="29">
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="33">
         <f>SUM(F71:F72)</f>
-        <v>1875.2417499999999</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="12.5">
-      <c r="A74" s="30" t="s">
+        <v>1875.24175</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="4"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B73:E73"/>
     <mergeCell ref="A74:F74"/>
     <mergeCell ref="B58:E58"/>
     <mergeCell ref="B59:E59"/>
@@ -1701,48 +1722,10 @@
     <mergeCell ref="B62:E62"/>
     <mergeCell ref="A63:F63"/>
     <mergeCell ref="B64:F64"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>